--- a/Paradigm/stimuli files/stroop_stimuli.xlsx
+++ b/Paradigm/stimuli files/stroop_stimuli.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
